--- a/controller/src/main/resources/static/template/ordersetting_template.xlsx
+++ b/controller/src/main/resources/static/template/ordersetting_template.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="预约设置模板" sheetId="1" r:id="rId1"/>
+    <sheet name="复制表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>日期</t>
   </si>
@@ -27,10 +28,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -50,14 +51,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,58 +168,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,56 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,19 +209,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,37 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,49 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,67 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,8 +421,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,6 +457,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -452,15 +497,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,41 +515,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,145 +535,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1020,24 +1024,96 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B2" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B3" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B4" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B5" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B6" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B7" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B8" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B9" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1045,4 +1121,89 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B2" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B3" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B4" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B5" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B6" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B7" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>